--- a/Document/SQL/Book2.xlsx
+++ b/Document/SQL/Book2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,23 +23,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>s</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,11 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -78,15 +93,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>288471</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>288471</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -95,8 +110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="323850"/>
-          <a:ext cx="2438400" cy="3533775"/>
+          <a:off x="1649185" y="351065"/>
+          <a:ext cx="2721429" cy="3275239"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -154,14 +169,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -170,8 +185,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4248150" y="247650"/>
-          <a:ext cx="3257550" cy="3533775"/>
+          <a:off x="4672693" y="394608"/>
+          <a:ext cx="3682093" cy="3524250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -228,15 +243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>635453</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164645</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -245,8 +260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7610475" y="276225"/>
-          <a:ext cx="3257550" cy="3533775"/>
+          <a:off x="8799739" y="394608"/>
+          <a:ext cx="3611335" cy="3524250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -288,7 +303,11 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Print report</a:t>
           </a:r>
         </a:p>
@@ -296,51 +315,1360 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>680356</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>149679</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>28574</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>96610</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>653143</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>13607</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>39461</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>137433</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>163286</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>163285</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>477611</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>110218</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>176893</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>122464</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>395968</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>69396</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>68035</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>14968</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>108858</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>14968</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>55791</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>136071</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>83004</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>163286</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>110218</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>136071</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>122463</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>326571</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>69396</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>149678</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>54428</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>387803</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>1360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>639536</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>136070</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>668111</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>83003</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>13607</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>40821</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>42181</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>97971</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>136071</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>16328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Object 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>666749</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>68035</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>14966</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>14967</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>435428</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>163286</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>464004</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>110217</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>449036</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>27214</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>477612</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>151038</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="UseCaseRealization2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Hình chữ nhật 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="4572000"/>
-          <a:ext cx="5943600" cy="4457700"/>
+          <a:off x="5293178" y="5619749"/>
+          <a:ext cx="2204358" cy="789215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> Server Module</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Thùng Chứa 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191751" y="5606141"/>
+          <a:ext cx="1074964" cy="979715"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Sql server</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Đường kết nối Mũi tên Thẳng 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374571" y="3673929"/>
+          <a:ext cx="1891393" cy="1932214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
-          <a:noFill/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Đường kết nối Mũi tên Thẳng 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6368142" y="3891643"/>
+          <a:ext cx="13608" cy="1728106"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Đường kết nối Mũi tên Thẳng 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7497536" y="3918858"/>
+          <a:ext cx="3107871" cy="1700892"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Đường kết nối Mũi tên Thẳng 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7497536" y="6014357"/>
+          <a:ext cx="2612571" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -608,16 +1936,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1028" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1028" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId12">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1031" r:id="rId14">
+          <objectPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1031" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1032" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1032" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1033" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1033" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1034" r:id="rId20">
+          <objectPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1034" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1035" r:id="rId22">
+          <objectPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1035" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1036" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1036" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1037" r:id="rId26">
+          <objectPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1037" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1038" r:id="rId28">
+          <objectPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1038" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1039" r:id="rId30">
+          <objectPr defaultSize="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1039" r:id="rId30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1040" r:id="rId32">
+          <objectPr defaultSize="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1040" r:id="rId32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1041" r:id="rId34">
+          <objectPr defaultSize="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1041" r:id="rId34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>